--- a/outputs/crossValV2/recallReport.xlsx
+++ b/outputs/crossValV2/recallReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lando\Documents\GitHub\Buell-Masters-Project\outputs\crossValV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69323AF9-13FD-47D5-9703-8942C472A2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BCA4C5-7228-4759-A36A-192ECE71BAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3640" yWindow="3640" windowWidth="18720" windowHeight="11660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -276,6 +276,1095 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Recall Score Across</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> K  = 10 Folds</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$32:$L$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.88360077896551714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91565728965517235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93359836241379324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91521812931034463</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86573742551724131</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9242045575862069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88511734241379303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91826844275862063</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93312901965517248</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9288593755172414</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5881-41D2-B5DE-1132F0D7046C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
+        <c:axId val="1392007119"/>
+        <c:axId val="755070479"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1392007119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Fold Index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755070479"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="9"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="755070479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1392007119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56C35A11-7A18-FC38-6AB3-728DBDEB05C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -543,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2049,5 +3138,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/outputs/crossValV2/recallReport.xlsx
+++ b/outputs/crossValV2/recallReport.xlsx
@@ -8,13 +8,55 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lando\Documents\GitHub\Buell-Masters-Project\outputs\crossValV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BCA4C5-7228-4759-A36A-192ECE71BAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94253D9C-3E3B-422B-886D-2FAAA6DD5A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="3640" windowWidth="18720" windowHeight="11660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25200" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$3:$C$31</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$H$2</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$H$3:$H$31</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$I$2</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$I$3:$I$31</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$J$2</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$J$3:$J$31</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$K$2</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$K$3:$K$31</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$L$2</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$L$3:$L$31</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$2</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$C$2</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$C$3:$C$31</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$D$2</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$D$3:$D$31</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$E$2</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$E$3:$E$31</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$F$2</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$F$3:$F$31</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$G$2</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$G$3:$G$31</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$3:$D$31</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$H$2</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$H$3:$H$31</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$I$2</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$I$3:$I$31</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$J$2</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$J$3:$J$31</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$K$2</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$K$3:$K$31</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$L$2</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$L$3:$L$31</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$E$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$E$3:$E$31</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$F$2</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$F$3:$F$31</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$G$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$G$3:$G$31</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -278,463 +320,235 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average Recall Score Across</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> K  = 10 Folds</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="5">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="6">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="7">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="8">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.17</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="9">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.19</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Recall Score By Cross Validation Fold</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Recall Score By Cross Validation Fold</a:t>
+          </a:r>
         </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$32:$L$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.88360077896551714</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.91565728965517235</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.93359836241379324</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.91521812931034463</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.86573742551724131</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9242045575862069</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.88511734241379303</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.91826844275862063</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.93312901965517248</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9288593755172414</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5881-41D2-B5DE-1132F0D7046C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="315"/>
-        <c:overlap val="-40"/>
-        <c:axId val="1392007119"/>
-        <c:axId val="755070479"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1392007119"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Fold Index</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="755070479"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="9"/>
-        <c:tickLblSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="755070479"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1392007119"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{2FBA1768-452B-4E0D-9180-7533D60156A6}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>fold 0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{B4211B05-0B49-4958-BD3B-C104EFAE9F46}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>fold 1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{259DD936-2E32-4088-9612-7C5FC85FE1A9}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>fold 2</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{69BF922F-9DFE-41D3-8549-0CCC4AF4FD38}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>fold 3</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{46D289AF-E519-4CB7-A72B-8401B488C3F0}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>fold 4</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{2168087D-248B-4A16-A0E7-73B5AD8E8901}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>fold 5</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="5"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{872AD1CE-3187-4A58-BBB5-AAE5290C3485}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:v>fold 6</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="6"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{E0715E11-66D1-4591-AEDB-CBD7AD3B674A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:v>fold 7</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="7"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{EB9606FB-F92F-44B2-8F87-DC9C320C482C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:v>fold 8</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="8"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{F73ECFD1-1D55-47A1-8C6B-DD369279F6E8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:v>fold 9</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="9"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="0.100000001"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -778,46 +592,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="373">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -825,38 +626,67 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -865,120 +695,78 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:miter lim="800000"/>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -986,10 +774,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1002,43 +790,44 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1047,13 +836,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1065,13 +855,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1083,7 +874,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -1091,27 +882,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1121,29 +901,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1153,13 +920,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1171,13 +939,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1189,26 +958,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1216,25 +986,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
+          <a:srgbClr val="D9D9D9"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -1245,11 +1025,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+    <cs:defRPr sz="1400"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1258,15 +1039,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1275,11 +1055,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -1290,17 +1071,15 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1309,18 +1088,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -1331,37 +1111,79 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56C35A11-7A18-FC38-6AB3-728DBDEB05C3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FE7630E-B2B0-264B-B241-340A23220339}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9232900" y="698500"/>
+              <a:ext cx="7315200" cy="3657600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1632,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
